--- a/FIN 401/Week 2/FIN401 Day 4 - WACC Calculation Example-1.xlsx
+++ b/FIN 401/Week 2/FIN401 Day 4 - WACC Calculation Example-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savag\Dropbox\PC\Desktop\Spring-2022\FIN 401\Week 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bailey\Desktop\Spring-2022\FIN 401\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884BDB2-58A4-4177-A774-F383437D9500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8189D721-91AF-4321-93D8-0095837E51AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39660" yWindow="3075" windowWidth="19920" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WACC Calculation" sheetId="12" r:id="rId1"/>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26:I27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
